--- a/benchmarking/MandelBrot Set Benchmarking.xlsx
+++ b/benchmarking/MandelBrot Set Benchmarking.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\CP431 - PP\Term Project\Julia-Sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\CP431 - PP\Term Project\Julia-Sets\benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F0DEBA-69E1-44A9-95B0-451AD8635BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB272148-B20D-4A6C-9424-E306AEA7F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11175" xr2:uid="{ADE69A88-8007-4873-B92D-6EF43AA93784}"/>
+    <workbookView xWindow="13490" yWindow="-3350" windowWidth="22620" windowHeight="13500" xr2:uid="{ADE69A88-8007-4873-B92D-6EF43AA93784}"/>
   </bookViews>
   <sheets>
     <sheet name="MandelBrot Set Benchmarking" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -251,6 +254,1055 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Parallel Execution Time Scaling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> for </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Mandelbrot Set Generation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23401600101192174"/>
+          <c:y val="2.7809965237543453E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MandelBrot Set Benchmarking'!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MandelBrot Set Benchmarking'!$F$13:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.322600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.921149999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.859120000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.63836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B485-441C-9F2D-F28BAA7D4CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="828810240"/>
+        <c:axId val="828828480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="828810240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number of Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828828480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="828828480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828810240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1441450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78C8295-7954-42C7-8EAF-239E0B14CD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="MandelBrot Set Benchmarking"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="13">
+          <cell r="E13">
+            <v>8</v>
+          </cell>
+          <cell r="F13">
+            <v>65.863100000000003</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>16</v>
+          </cell>
+          <cell r="F14">
+            <v>47.712850000000003</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>32</v>
+          </cell>
+          <cell r="F15">
+            <v>29.189699999999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>64</v>
+          </cell>
+          <cell r="F16">
+            <v>17.746680000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F212F851-ED22-43C6-B40A-776115582988}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,8 +1984,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
